--- a/work_files/dynamic_shape_2_0_attachment_bits_array.xlsx
+++ b/work_files/dynamic_shape_2_0_attachment_bits_array.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minjaesong\Documents\terrarum\work_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23880" windowHeight="13305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23880" windowHeight="13305" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Mask47" sheetId="1" r:id="rId1"/>
+    <sheet name="Mask16" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="306">
   <si>
     <t>Index</t>
   </si>
@@ -916,6 +917,33 @@
   </si>
   <si>
     <t>1101x0x1</t>
+  </si>
+  <si>
+    <t>x1x1x1x1</t>
+  </si>
+  <si>
+    <t>x0x0x1x1</t>
+  </si>
+  <si>
+    <t>x1x0x1x1</t>
+  </si>
+  <si>
+    <t>x1x1x0x0</t>
+  </si>
+  <si>
+    <t>x1x1x0x1</t>
+  </si>
+  <si>
+    <t>x0x1x1x0</t>
+  </si>
+  <si>
+    <t>x1x1x1x0</t>
+  </si>
+  <si>
+    <t>x0x1x1x1</t>
+  </si>
+  <si>
+    <t>x1x0x0x1</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1077,59 @@
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1834,6 +1914,23 @@
     <sortCondition ref="C1:C257"/>
   </sortState>
   <tableColumns count="3">
+    <tableColumn id="1" name="Index" dataDxfId="5"/>
+    <tableColumn id="2" name="RawBits" dataDxfId="4"/>
+    <tableColumn id="3" name="toDec" dataDxfId="3">
+      <calculatedColumnFormula>BIN2DEC(B2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:C257" totalsRowShown="0">
+  <autoFilter ref="A1:C257"/>
+  <sortState ref="A2:C257">
+    <sortCondition ref="C1:C257"/>
+  </sortState>
+  <tableColumns count="3">
     <tableColumn id="1" name="Index" dataDxfId="2"/>
     <tableColumn id="2" name="RawBits" dataDxfId="1"/>
     <tableColumn id="3" name="toDec" dataDxfId="0">
@@ -2107,10 +2204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,7 +2262,7 @@
         <v>168</v>
       </c>
       <c r="C2" s="1">
-        <f>BIN2DEC(B2)</f>
+        <f t="shared" ref="C2:C65" si="0">BIN2DEC(B2)</f>
         <v>0</v>
       </c>
       <c r="E2" s="2"/>
@@ -2191,7 +2289,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="1">
-        <f>BIN2DEC(B3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
@@ -2202,11 +2300,11 @@
         <v>3</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J44" si="0">LEN(I3)-LEN(SUBSTITUTE(I3,"x",""))</f>
+        <f t="shared" ref="J3:J40" si="1">LEN(I3)-LEN(SUBSTITUTE(I3,"x",""))</f>
         <v>4</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K48" si="1">POWER(2,J3)</f>
+        <f t="shared" ref="K3:K48" si="2">POWER(2,J3)</f>
         <v>16</v>
       </c>
     </row>
@@ -2218,7 +2316,7 @@
         <v>169</v>
       </c>
       <c r="C4" s="1">
-        <f>BIN2DEC(B4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E4" s="2"/>
@@ -2229,11 +2327,11 @@
         <v>4</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -2245,7 +2343,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1">
-        <f>BIN2DEC(B5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
@@ -2256,11 +2354,11 @@
         <v>5</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -2272,7 +2370,7 @@
         <v>75</v>
       </c>
       <c r="C6" s="1">
-        <f>BIN2DEC(B6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E6" s="2"/>
@@ -2283,11 +2381,11 @@
         <v>6</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -2299,7 +2397,7 @@
         <v>91</v>
       </c>
       <c r="C7" s="1">
-        <f>BIN2DEC(B7)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E7" s="2"/>
@@ -2310,11 +2408,11 @@
         <v>7</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2326,7 +2424,7 @@
         <v>76</v>
       </c>
       <c r="C8" s="1">
-        <f>BIN2DEC(B8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E8" s="2"/>
@@ -2337,11 +2435,11 @@
         <v>8</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2353,7 +2451,7 @@
         <v>159</v>
       </c>
       <c r="C9" s="1">
-        <f>BIN2DEC(B9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E9" s="2"/>
@@ -2364,11 +2462,11 @@
         <v>9</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -2380,7 +2478,7 @@
         <v>170</v>
       </c>
       <c r="C10" s="1">
-        <f>BIN2DEC(B10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E10" s="2"/>
@@ -2391,11 +2489,11 @@
         <v>10</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -2407,7 +2505,7 @@
         <v>61</v>
       </c>
       <c r="C11" s="1">
-        <f>BIN2DEC(B11)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E11" s="2"/>
@@ -2418,11 +2516,11 @@
         <v>11</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -2434,7 +2532,7 @@
         <v>171</v>
       </c>
       <c r="C12" s="1">
-        <f>BIN2DEC(B12)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E12" s="2"/>
@@ -2445,11 +2543,11 @@
         <v>12</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -2461,7 +2559,7 @@
         <v>62</v>
       </c>
       <c r="C13" s="1">
-        <f>BIN2DEC(B13)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E13" s="2"/>
@@ -2472,11 +2570,11 @@
         <v>13</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -2488,7 +2586,7 @@
         <v>77</v>
       </c>
       <c r="C14" s="1">
-        <f>BIN2DEC(B14)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E14" s="2"/>
@@ -2499,11 +2597,11 @@
         <v>14</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2515,7 +2613,7 @@
         <v>92</v>
       </c>
       <c r="C15" s="1">
-        <f>BIN2DEC(B15)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="E15" s="2"/>
@@ -2526,11 +2624,11 @@
         <v>15</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2542,7 +2640,7 @@
         <v>78</v>
       </c>
       <c r="C16" s="1">
-        <f>BIN2DEC(B16)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="E16" s="2"/>
@@ -2553,11 +2651,11 @@
         <v>16</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -2569,7 +2667,7 @@
         <v>160</v>
       </c>
       <c r="C17" s="1">
-        <f>BIN2DEC(B17)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E17" s="2"/>
@@ -2580,11 +2678,11 @@
         <v>17</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2596,7 +2694,7 @@
         <v>133</v>
       </c>
       <c r="C18" s="1">
-        <f>BIN2DEC(B18)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E18" s="2"/>
@@ -2607,11 +2705,11 @@
         <v>18</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -2623,7 +2721,7 @@
         <v>101</v>
       </c>
       <c r="C19" s="1">
-        <f>BIN2DEC(B19)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E19" s="2"/>
@@ -2634,11 +2732,11 @@
         <v>19</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -2650,7 +2748,7 @@
         <v>134</v>
       </c>
       <c r="C20" s="1">
-        <f>BIN2DEC(B20)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="E20" s="2"/>
@@ -2661,11 +2759,11 @@
         <v>20</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2677,7 +2775,7 @@
         <v>102</v>
       </c>
       <c r="C21" s="1">
-        <f>BIN2DEC(B21)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="E21" s="2"/>
@@ -2688,11 +2786,11 @@
         <v>21</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2704,7 +2802,7 @@
         <v>95</v>
       </c>
       <c r="C22" s="1">
-        <f>BIN2DEC(B22)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E22" s="2"/>
@@ -2715,11 +2813,11 @@
         <v>22</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2731,7 +2829,7 @@
         <v>99</v>
       </c>
       <c r="C23" s="1">
-        <f>BIN2DEC(B23)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E23" s="2"/>
@@ -2742,11 +2840,11 @@
         <v>23</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2758,7 +2856,7 @@
         <v>96</v>
       </c>
       <c r="C24" s="1">
-        <f>BIN2DEC(B24)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E24" s="2"/>
@@ -2769,11 +2867,11 @@
         <v>24</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2785,7 +2883,7 @@
         <v>253</v>
       </c>
       <c r="C25" s="6">
-        <f>BIN2DEC(B25)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E25" s="2"/>
@@ -2796,11 +2894,11 @@
         <v>25</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2812,7 +2910,7 @@
         <v>135</v>
       </c>
       <c r="C26" s="1">
-        <f>BIN2DEC(B26)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="E26" s="2"/>
@@ -2823,11 +2921,11 @@
         <v>26</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2839,7 +2937,7 @@
         <v>103</v>
       </c>
       <c r="C27" s="1">
-        <f>BIN2DEC(B27)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E27" s="2"/>
@@ -2850,11 +2948,11 @@
         <v>27</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2866,7 +2964,7 @@
         <v>136</v>
       </c>
       <c r="C28" s="1">
-        <f>BIN2DEC(B28)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="E28" s="2"/>
@@ -2877,11 +2975,11 @@
         <v>28</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2893,7 +2991,7 @@
         <v>104</v>
       </c>
       <c r="C29" s="1">
-        <f>BIN2DEC(B29)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E29" s="2"/>
@@ -2904,11 +3002,11 @@
         <v>29</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2920,7 +3018,7 @@
         <v>164</v>
       </c>
       <c r="C30" s="1">
-        <f>BIN2DEC(B30)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="E30" s="2"/>
@@ -2931,11 +3029,11 @@
         <v>34</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -2947,7 +3045,7 @@
         <v>254</v>
       </c>
       <c r="C31" s="1">
-        <f>BIN2DEC(B31)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E31" s="2"/>
@@ -2958,11 +3056,11 @@
         <v>35</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2974,7 +3072,7 @@
         <v>165</v>
       </c>
       <c r="C32" s="6">
-        <f>BIN2DEC(B32)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E32" s="2"/>
@@ -2985,11 +3083,11 @@
         <v>36</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -3001,7 +3099,7 @@
         <v>163</v>
       </c>
       <c r="C33" s="1">
-        <f>BIN2DEC(B33)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="E33" s="2"/>
@@ -3012,11 +3110,11 @@
         <v>37</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3028,7 +3126,7 @@
         <v>172</v>
       </c>
       <c r="C34" s="1">
-        <f>BIN2DEC(B34)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="E34" s="2"/>
@@ -3039,11 +3137,11 @@
         <v>38</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3055,7 +3153,7 @@
         <v>63</v>
       </c>
       <c r="C35" s="1">
-        <f>BIN2DEC(B35)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="E35" s="2"/>
@@ -3066,11 +3164,11 @@
         <v>39</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3082,7 +3180,7 @@
         <v>173</v>
       </c>
       <c r="C36" s="1">
-        <f>BIN2DEC(B36)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="E36" s="2"/>
@@ -3093,11 +3191,11 @@
         <v>40</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3109,7 +3207,7 @@
         <v>64</v>
       </c>
       <c r="C37" s="1">
-        <f>BIN2DEC(B37)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E37" s="2"/>
@@ -3120,11 +3218,11 @@
         <v>289</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3136,7 +3234,7 @@
         <v>79</v>
       </c>
       <c r="C38" s="1">
-        <f>BIN2DEC(B38)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="H38" s="1">
@@ -3146,11 +3244,11 @@
         <v>290</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3162,7 +3260,7 @@
         <v>93</v>
       </c>
       <c r="C39" s="1">
-        <f>BIN2DEC(B39)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="H39" s="1">
@@ -3172,11 +3270,11 @@
         <v>291</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3188,7 +3286,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="1">
-        <f>BIN2DEC(B40)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="H40" s="1">
@@ -3198,11 +3296,11 @@
         <v>292</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3214,7 +3312,7 @@
         <v>161</v>
       </c>
       <c r="C41" s="1">
-        <f>BIN2DEC(B41)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="H41" s="1">
@@ -3228,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3240,21 +3338,21 @@
         <v>174</v>
       </c>
       <c r="C42" s="1">
-        <f>BIN2DEC(B42)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="H42" s="1">
         <v>40</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J42" s="3">
         <f>LEN(I44)-LEN(SUBSTITUTE(I44,"x",""))</f>
         <v>2</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3266,7 +3364,7 @@
         <v>65</v>
       </c>
       <c r="C43" s="1">
-        <f>BIN2DEC(B43)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="H43" s="1">
@@ -3280,7 +3378,7 @@
         <v>2</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3292,7 +3390,7 @@
         <v>175</v>
       </c>
       <c r="C44" s="1">
-        <f>BIN2DEC(B44)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="H44" s="1">
@@ -3306,7 +3404,7 @@
         <v>2</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -3318,7 +3416,7 @@
         <v>66</v>
       </c>
       <c r="C45" s="6">
-        <f>BIN2DEC(B45)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="H45" s="1">
@@ -3328,11 +3426,11 @@
         <v>295</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" ref="J45:J48" si="2">LEN(I47)-LEN(SUBSTITUTE(I47,"x",""))</f>
+        <f t="shared" ref="J45:J48" si="3">LEN(I47)-LEN(SUBSTITUTE(I47,"x",""))</f>
         <v>0</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3344,7 +3442,7 @@
         <v>81</v>
       </c>
       <c r="C46" s="1">
-        <f>BIN2DEC(B46)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="H46" s="1">
@@ -3354,11 +3452,11 @@
         <v>296</v>
       </c>
       <c r="J46" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3370,21 +3468,21 @@
         <v>94</v>
       </c>
       <c r="C47" s="1">
-        <f>BIN2DEC(B47)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="H47" s="1">
         <v>45</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J47" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3396,7 +3494,7 @@
         <v>82</v>
       </c>
       <c r="C48" s="1">
-        <f>BIN2DEC(B48)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="H48" s="1">
@@ -3406,11 +3504,11 @@
         <v>261</v>
       </c>
       <c r="J48" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3422,7 +3520,7 @@
         <v>162</v>
       </c>
       <c r="C49" s="1">
-        <f>BIN2DEC(B49)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="J49" s="1" t="s">
@@ -3441,7 +3539,7 @@
         <v>137</v>
       </c>
       <c r="C50" s="1">
-        <f>BIN2DEC(B50)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -3460,7 +3558,7 @@
         <v>105</v>
       </c>
       <c r="C51" s="1">
-        <f>BIN2DEC(B51)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
@@ -3472,7 +3570,7 @@
         <v>138</v>
       </c>
       <c r="C52" s="1">
-        <f>BIN2DEC(B52)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -3484,7 +3582,7 @@
         <v>106</v>
       </c>
       <c r="C53" s="1">
-        <f>BIN2DEC(B53)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
@@ -3496,7 +3594,7 @@
         <v>97</v>
       </c>
       <c r="C54" s="1">
-        <f>BIN2DEC(B54)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
@@ -3508,7 +3606,7 @@
         <v>203</v>
       </c>
       <c r="C55" s="1">
-        <f>BIN2DEC(B55)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
@@ -3520,7 +3618,7 @@
         <v>98</v>
       </c>
       <c r="C56" s="1">
-        <f>BIN2DEC(B56)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
@@ -3532,7 +3630,7 @@
         <v>255</v>
       </c>
       <c r="C57" s="1">
-        <f>BIN2DEC(B57)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
@@ -3544,7 +3642,7 @@
         <v>139</v>
       </c>
       <c r="C58" s="1">
-        <f>BIN2DEC(B58)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
@@ -3556,7 +3654,7 @@
         <v>107</v>
       </c>
       <c r="C59" s="1">
-        <f>BIN2DEC(B59)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
@@ -3568,7 +3666,7 @@
         <v>140</v>
       </c>
       <c r="C60" s="6">
-        <f>BIN2DEC(B60)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
@@ -3580,7 +3678,7 @@
         <v>108</v>
       </c>
       <c r="C61" s="6">
-        <f>BIN2DEC(B61)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
@@ -3592,7 +3690,7 @@
         <v>166</v>
       </c>
       <c r="C62" s="1">
-        <f>BIN2DEC(B62)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -3604,7 +3702,7 @@
         <v>256</v>
       </c>
       <c r="C63" s="6">
-        <f>BIN2DEC(B63)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
@@ -3616,7 +3714,7 @@
         <v>167</v>
       </c>
       <c r="C64" s="1">
-        <f>BIN2DEC(B64)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
@@ -3628,7 +3726,7 @@
         <v>227</v>
       </c>
       <c r="C65" s="1">
-        <f>BIN2DEC(B65)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
@@ -3640,7 +3738,7 @@
         <v>117</v>
       </c>
       <c r="C66" s="1">
-        <f>BIN2DEC(B66)</f>
+        <f t="shared" ref="C66:C129" si="4">BIN2DEC(B66)</f>
         <v>64</v>
       </c>
     </row>
@@ -3652,7 +3750,7 @@
         <v>149</v>
       </c>
       <c r="C67" s="1">
-        <f>BIN2DEC(B67)</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
     </row>
@@ -3664,7 +3762,7 @@
         <v>118</v>
       </c>
       <c r="C68" s="1">
-        <f>BIN2DEC(B68)</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
     </row>
@@ -3676,7 +3774,7 @@
         <v>150</v>
       </c>
       <c r="C69" s="6">
-        <f>BIN2DEC(B69)</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
     </row>
@@ -3688,7 +3786,7 @@
         <v>43</v>
       </c>
       <c r="C70" s="1">
-        <f>BIN2DEC(B70)</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
     </row>
@@ -3700,7 +3798,7 @@
         <v>157</v>
       </c>
       <c r="C71" s="1">
-        <f>BIN2DEC(B71)</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
     </row>
@@ -3712,7 +3810,7 @@
         <v>44</v>
       </c>
       <c r="C72" s="1">
-        <f>BIN2DEC(B72)</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -3724,7 +3822,7 @@
         <v>257</v>
       </c>
       <c r="C73" s="6">
-        <f>BIN2DEC(B73)</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
     </row>
@@ -3736,7 +3834,7 @@
         <v>119</v>
       </c>
       <c r="C74" s="1">
-        <f>BIN2DEC(B74)</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
     </row>
@@ -3748,7 +3846,7 @@
         <v>151</v>
       </c>
       <c r="C75" s="1">
-        <f>BIN2DEC(B75)</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
     </row>
@@ -3760,7 +3858,7 @@
         <v>120</v>
       </c>
       <c r="C76" s="1">
-        <f>BIN2DEC(B76)</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
     </row>
@@ -3772,7 +3870,7 @@
         <v>152</v>
       </c>
       <c r="C77" s="6">
-        <f>BIN2DEC(B77)</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
     </row>
@@ -3784,7 +3882,7 @@
         <v>45</v>
       </c>
       <c r="C78" s="1">
-        <f>BIN2DEC(B78)</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
     </row>
@@ -3796,7 +3894,7 @@
         <v>217</v>
       </c>
       <c r="C79" s="1">
-        <f>BIN2DEC(B79)</f>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
@@ -3808,7 +3906,7 @@
         <v>46</v>
       </c>
       <c r="C80" s="1">
-        <f>BIN2DEC(B80)</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
     </row>
@@ -3820,7 +3918,7 @@
         <v>258</v>
       </c>
       <c r="C81" s="1">
-        <f>BIN2DEC(B81)</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
     </row>
@@ -3832,7 +3930,7 @@
         <v>153</v>
       </c>
       <c r="C82" s="1">
-        <f>BIN2DEC(B82)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
@@ -3844,7 +3942,7 @@
         <v>158</v>
       </c>
       <c r="C83" s="1">
-        <f>BIN2DEC(B83)</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
     </row>
@@ -3856,7 +3954,7 @@
         <v>154</v>
       </c>
       <c r="C84" s="1">
-        <f>BIN2DEC(B84)</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
     </row>
@@ -3868,7 +3966,7 @@
         <v>220</v>
       </c>
       <c r="C85" s="1">
-        <f>BIN2DEC(B85)</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
     </row>
@@ -3880,7 +3978,7 @@
         <v>100</v>
       </c>
       <c r="C86" s="1">
-        <f>BIN2DEC(B86)</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
     </row>
@@ -3892,7 +3990,7 @@
         <v>22</v>
       </c>
       <c r="C87" s="1">
-        <f>BIN2DEC(B87)</f>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
     </row>
@@ -3904,7 +4002,7 @@
         <v>206</v>
       </c>
       <c r="C88" s="1">
-        <f>BIN2DEC(B88)</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
     </row>
@@ -3916,7 +4014,7 @@
         <v>40</v>
       </c>
       <c r="C89" s="6">
-        <f>BIN2DEC(B89)</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
     </row>
@@ -3928,7 +4026,7 @@
         <v>155</v>
       </c>
       <c r="C90" s="1">
-        <f>BIN2DEC(B90)</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
     </row>
@@ -3940,7 +4038,7 @@
         <v>221</v>
       </c>
       <c r="C91" s="1">
-        <f>BIN2DEC(B91)</f>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
     </row>
@@ -3952,7 +4050,7 @@
         <v>156</v>
       </c>
       <c r="C92" s="1">
-        <f>BIN2DEC(B92)</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
@@ -3964,7 +4062,7 @@
         <v>222</v>
       </c>
       <c r="C93" s="1">
-        <f>BIN2DEC(B93)</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
     </row>
@@ -3976,7 +4074,7 @@
         <v>259</v>
       </c>
       <c r="C94" s="1">
-        <f>BIN2DEC(B94)</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
     </row>
@@ -3988,7 +4086,7 @@
         <v>39</v>
       </c>
       <c r="C95" s="1">
-        <f>BIN2DEC(B95)</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
     </row>
@@ -4000,7 +4098,7 @@
         <v>260</v>
       </c>
       <c r="C96" s="1">
-        <f>BIN2DEC(B96)</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
     </row>
@@ -4012,7 +4110,7 @@
         <v>261</v>
       </c>
       <c r="C97" s="1">
-        <f>BIN2DEC(B97)</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
     </row>
@@ -4024,7 +4122,7 @@
         <v>121</v>
       </c>
       <c r="C98" s="6">
-        <f>BIN2DEC(B98)</f>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
     </row>
@@ -4036,7 +4134,7 @@
         <v>209</v>
       </c>
       <c r="C99" s="1">
-        <f>BIN2DEC(B99)</f>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
     </row>
@@ -4048,7 +4146,7 @@
         <v>122</v>
       </c>
       <c r="C100" s="1">
-        <f>BIN2DEC(B100)</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
     </row>
@@ -4060,7 +4158,7 @@
         <v>210</v>
       </c>
       <c r="C101" s="6">
-        <f>BIN2DEC(B101)</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
     </row>
@@ -4072,7 +4170,7 @@
         <v>47</v>
       </c>
       <c r="C102" s="1">
-        <f>BIN2DEC(B102)</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -4084,7 +4182,7 @@
         <v>218</v>
       </c>
       <c r="C103" s="1">
-        <f>BIN2DEC(B103)</f>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
     </row>
@@ -4096,7 +4194,7 @@
         <v>48</v>
       </c>
       <c r="C104" s="1">
-        <f>BIN2DEC(B104)</f>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
     </row>
@@ -4108,7 +4206,7 @@
         <v>262</v>
       </c>
       <c r="C105" s="1">
-        <f>BIN2DEC(B105)</f>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
     </row>
@@ -4120,7 +4218,7 @@
         <v>123</v>
       </c>
       <c r="C106" s="6">
-        <f>BIN2DEC(B106)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
     </row>
@@ -4132,7 +4230,7 @@
         <v>211</v>
       </c>
       <c r="C107" s="1">
-        <f>BIN2DEC(B107)</f>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
     </row>
@@ -4144,7 +4242,7 @@
         <v>124</v>
       </c>
       <c r="C108" s="6">
-        <f>BIN2DEC(B108)</f>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
     </row>
@@ -4156,7 +4254,7 @@
         <v>212</v>
       </c>
       <c r="C109" s="1">
-        <f>BIN2DEC(B109)</f>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
     </row>
@@ -4168,7 +4266,7 @@
         <v>49</v>
       </c>
       <c r="C110" s="1">
-        <f>BIN2DEC(B110)</f>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
     </row>
@@ -4180,7 +4278,7 @@
         <v>219</v>
       </c>
       <c r="C111" s="1">
-        <f>BIN2DEC(B111)</f>
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
     </row>
@@ -4192,7 +4290,7 @@
         <v>50</v>
       </c>
       <c r="C112" s="1">
-        <f>BIN2DEC(B112)</f>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
     </row>
@@ -4204,7 +4302,7 @@
         <v>263</v>
       </c>
       <c r="C113" s="1">
-        <f>BIN2DEC(B113)</f>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
     </row>
@@ -4216,7 +4314,7 @@
         <v>191</v>
       </c>
       <c r="C114" s="1">
-        <f>BIN2DEC(B114)</f>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
     </row>
@@ -4228,7 +4326,7 @@
         <v>264</v>
       </c>
       <c r="C115" s="1">
-        <f>BIN2DEC(B115)</f>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
     </row>
@@ -4240,7 +4338,7 @@
         <v>192</v>
       </c>
       <c r="C116" s="6">
-        <f>BIN2DEC(B116)</f>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
     </row>
@@ -4252,7 +4350,7 @@
         <v>265</v>
       </c>
       <c r="C117" s="1">
-        <f>BIN2DEC(B117)</f>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
     </row>
@@ -4264,7 +4362,7 @@
         <v>266</v>
       </c>
       <c r="C118" s="1">
-        <f>BIN2DEC(B118)</f>
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
     </row>
@@ -4276,7 +4374,7 @@
         <v>28</v>
       </c>
       <c r="C119" s="1">
-        <f>BIN2DEC(B119)</f>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
     </row>
@@ -4288,7 +4386,7 @@
         <v>267</v>
       </c>
       <c r="C120" s="1">
-        <f>BIN2DEC(B120)</f>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
     </row>
@@ -4300,7 +4398,7 @@
         <v>20</v>
       </c>
       <c r="C121" s="1">
-        <f>BIN2DEC(B121)</f>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
     </row>
@@ -4312,7 +4410,7 @@
         <v>193</v>
       </c>
       <c r="C122" s="1">
-        <f>BIN2DEC(B122)</f>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
     </row>
@@ -4324,7 +4422,7 @@
         <v>268</v>
       </c>
       <c r="C123" s="6">
-        <f>BIN2DEC(B123)</f>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
     </row>
@@ -4336,7 +4434,7 @@
         <v>194</v>
       </c>
       <c r="C124" s="6">
-        <f>BIN2DEC(B124)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
     </row>
@@ -4348,7 +4446,7 @@
         <v>269</v>
       </c>
       <c r="C125" s="6">
-        <f>BIN2DEC(B125)</f>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
     </row>
@@ -4360,19 +4458,19 @@
         <v>185</v>
       </c>
       <c r="C126" s="1">
-        <f>BIN2DEC(B126)</f>
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>270</v>
       </c>
       <c r="C127" s="6">
-        <f>BIN2DEC(B127)</f>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
     </row>
@@ -4384,7 +4482,7 @@
         <v>237</v>
       </c>
       <c r="C128" s="6">
-        <f>BIN2DEC(B128)</f>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
     </row>
@@ -4396,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="C129" s="1">
-        <f>BIN2DEC(B129)</f>
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
     </row>
@@ -4408,7 +4506,7 @@
         <v>176</v>
       </c>
       <c r="C130" s="1">
-        <f>BIN2DEC(B130)</f>
+        <f t="shared" ref="C130:C193" si="5">BIN2DEC(B130)</f>
         <v>128</v>
       </c>
     </row>
@@ -4420,7 +4518,7 @@
         <v>67</v>
       </c>
       <c r="C131" s="1">
-        <f>BIN2DEC(B131)</f>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
     </row>
@@ -4432,7 +4530,7 @@
         <v>177</v>
       </c>
       <c r="C132" s="1">
-        <f>BIN2DEC(B132)</f>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
     </row>
@@ -4444,7 +4542,7 @@
         <v>68</v>
       </c>
       <c r="C133" s="1">
-        <f>BIN2DEC(B133)</f>
+        <f t="shared" si="5"/>
         <v>131</v>
       </c>
     </row>
@@ -4456,7 +4554,7 @@
         <v>83</v>
       </c>
       <c r="C134" s="1">
-        <f>BIN2DEC(B134)</f>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
     </row>
@@ -4468,7 +4566,7 @@
         <v>195</v>
       </c>
       <c r="C135" s="1">
-        <f>BIN2DEC(B135)</f>
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
     </row>
@@ -4480,7 +4578,7 @@
         <v>84</v>
       </c>
       <c r="C136" s="1">
-        <f>BIN2DEC(B136)</f>
+        <f t="shared" si="5"/>
         <v>134</v>
       </c>
     </row>
@@ -4492,7 +4590,7 @@
         <v>223</v>
       </c>
       <c r="C137" s="1">
-        <f>BIN2DEC(B137)</f>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
     </row>
@@ -4504,7 +4602,7 @@
         <v>178</v>
       </c>
       <c r="C138" s="1">
-        <f>BIN2DEC(B138)</f>
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
     </row>
@@ -4516,7 +4614,7 @@
         <v>69</v>
       </c>
       <c r="C139" s="1">
-        <f>BIN2DEC(B139)</f>
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
     </row>
@@ -4528,7 +4626,7 @@
         <v>179</v>
       </c>
       <c r="C140" s="1">
-        <f>BIN2DEC(B140)</f>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
     </row>
@@ -4540,7 +4638,7 @@
         <v>70</v>
       </c>
       <c r="C141" s="1">
-        <f>BIN2DEC(B141)</f>
+        <f t="shared" si="5"/>
         <v>139</v>
       </c>
     </row>
@@ -4552,7 +4650,7 @@
         <v>85</v>
       </c>
       <c r="C142" s="1">
-        <f>BIN2DEC(B142)</f>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
     </row>
@@ -4564,7 +4662,7 @@
         <v>196</v>
       </c>
       <c r="C143" s="1">
-        <f>BIN2DEC(B143)</f>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
     </row>
@@ -4576,7 +4674,7 @@
         <v>86</v>
       </c>
       <c r="C144" s="1">
-        <f>BIN2DEC(B144)</f>
+        <f t="shared" si="5"/>
         <v>142</v>
       </c>
     </row>
@@ -4588,7 +4686,7 @@
         <v>224</v>
       </c>
       <c r="C145" s="1">
-        <f>BIN2DEC(B145)</f>
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
     </row>
@@ -4600,7 +4698,7 @@
         <v>141</v>
       </c>
       <c r="C146" s="1">
-        <f>BIN2DEC(B146)</f>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
     </row>
@@ -4612,7 +4710,7 @@
         <v>109</v>
       </c>
       <c r="C147" s="1">
-        <f>BIN2DEC(B147)</f>
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
     </row>
@@ -4624,7 +4722,7 @@
         <v>142</v>
       </c>
       <c r="C148" s="6">
-        <f>BIN2DEC(B148)</f>
+        <f t="shared" si="5"/>
         <v>146</v>
       </c>
     </row>
@@ -4636,7 +4734,7 @@
         <v>110</v>
       </c>
       <c r="C149" s="1">
-        <f>BIN2DEC(B149)</f>
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
     </row>
@@ -4648,7 +4746,7 @@
         <v>199</v>
       </c>
       <c r="C150" s="1">
-        <f>BIN2DEC(B150)</f>
+        <f t="shared" si="5"/>
         <v>148</v>
       </c>
     </row>
@@ -4660,7 +4758,7 @@
         <v>204</v>
       </c>
       <c r="C151" s="1">
-        <f>BIN2DEC(B151)</f>
+        <f t="shared" si="5"/>
         <v>149</v>
       </c>
     </row>
@@ -4672,7 +4770,7 @@
         <v>200</v>
       </c>
       <c r="C152" s="6">
-        <f>BIN2DEC(B152)</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
     </row>
@@ -4684,7 +4782,7 @@
         <v>271</v>
       </c>
       <c r="C153" s="6">
-        <f>BIN2DEC(B153)</f>
+        <f t="shared" si="5"/>
         <v>151</v>
       </c>
     </row>
@@ -4696,7 +4794,7 @@
         <v>143</v>
       </c>
       <c r="C154" s="1">
-        <f>BIN2DEC(B154)</f>
+        <f t="shared" si="5"/>
         <v>152</v>
       </c>
     </row>
@@ -4708,7 +4806,7 @@
         <v>111</v>
       </c>
       <c r="C155" s="1">
-        <f>BIN2DEC(B155)</f>
+        <f t="shared" si="5"/>
         <v>153</v>
       </c>
     </row>
@@ -4720,7 +4818,7 @@
         <v>144</v>
       </c>
       <c r="C156" s="6">
-        <f>BIN2DEC(B156)</f>
+        <f t="shared" si="5"/>
         <v>154</v>
       </c>
     </row>
@@ -4732,7 +4830,7 @@
         <v>112</v>
       </c>
       <c r="C157" s="1">
-        <f>BIN2DEC(B157)</f>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
     </row>
@@ -4744,7 +4842,7 @@
         <v>230</v>
       </c>
       <c r="C158" s="1">
-        <f>BIN2DEC(B158)</f>
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
     </row>
@@ -4756,7 +4854,7 @@
         <v>272</v>
       </c>
       <c r="C159" s="1">
-        <f>BIN2DEC(B159)</f>
+        <f t="shared" si="5"/>
         <v>157</v>
       </c>
     </row>
@@ -4768,7 +4866,7 @@
         <v>231</v>
       </c>
       <c r="C160" s="1">
-        <f>BIN2DEC(B160)</f>
+        <f t="shared" si="5"/>
         <v>158</v>
       </c>
     </row>
@@ -4780,7 +4878,7 @@
         <v>228</v>
       </c>
       <c r="C161" s="1">
-        <f>BIN2DEC(B161)</f>
+        <f t="shared" si="5"/>
         <v>159</v>
       </c>
     </row>
@@ -4792,7 +4890,7 @@
         <v>180</v>
       </c>
       <c r="C162" s="1">
-        <f>BIN2DEC(B162)</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
     </row>
@@ -4804,7 +4902,7 @@
         <v>71</v>
       </c>
       <c r="C163" s="1">
-        <f>BIN2DEC(B163)</f>
+        <f t="shared" si="5"/>
         <v>161</v>
       </c>
     </row>
@@ -4816,7 +4914,7 @@
         <v>181</v>
       </c>
       <c r="C164" s="1">
-        <f>BIN2DEC(B164)</f>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
     </row>
@@ -4828,7 +4926,7 @@
         <v>72</v>
       </c>
       <c r="C165" s="6">
-        <f>BIN2DEC(B165)</f>
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
     </row>
@@ -4840,7 +4938,7 @@
         <v>87</v>
       </c>
       <c r="C166" s="1">
-        <f>BIN2DEC(B166)</f>
+        <f t="shared" si="5"/>
         <v>164</v>
       </c>
     </row>
@@ -4852,7 +4950,7 @@
         <v>197</v>
       </c>
       <c r="C167" s="1">
-        <f>BIN2DEC(B167)</f>
+        <f t="shared" si="5"/>
         <v>165</v>
       </c>
     </row>
@@ -4864,7 +4962,7 @@
         <v>88</v>
       </c>
       <c r="C168" s="1">
-        <f>BIN2DEC(B168)</f>
+        <f t="shared" si="5"/>
         <v>166</v>
       </c>
     </row>
@@ -4876,7 +4974,7 @@
         <v>225</v>
       </c>
       <c r="C169" s="1">
-        <f>BIN2DEC(B169)</f>
+        <f t="shared" si="5"/>
         <v>167</v>
       </c>
     </row>
@@ -4888,7 +4986,7 @@
         <v>182</v>
       </c>
       <c r="C170" s="1">
-        <f>BIN2DEC(B170)</f>
+        <f t="shared" si="5"/>
         <v>168</v>
       </c>
     </row>
@@ -4900,7 +4998,7 @@
         <v>73</v>
       </c>
       <c r="C171" s="1">
-        <f>BIN2DEC(B171)</f>
+        <f t="shared" si="5"/>
         <v>169</v>
       </c>
     </row>
@@ -4912,7 +5010,7 @@
         <v>183</v>
       </c>
       <c r="C172" s="1">
-        <f>BIN2DEC(B172)</f>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
     </row>
@@ -4924,7 +5022,7 @@
         <v>74</v>
       </c>
       <c r="C173" s="1">
-        <f>BIN2DEC(B173)</f>
+        <f t="shared" si="5"/>
         <v>171</v>
       </c>
     </row>
@@ -4936,7 +5034,7 @@
         <v>89</v>
       </c>
       <c r="C174" s="1">
-        <f>BIN2DEC(B174)</f>
+        <f t="shared" si="5"/>
         <v>172</v>
       </c>
     </row>
@@ -4948,7 +5046,7 @@
         <v>198</v>
       </c>
       <c r="C175" s="6">
-        <f>BIN2DEC(B175)</f>
+        <f t="shared" si="5"/>
         <v>173</v>
       </c>
     </row>
@@ -4960,7 +5058,7 @@
         <v>90</v>
       </c>
       <c r="C176" s="1">
-        <f>BIN2DEC(B176)</f>
+        <f t="shared" si="5"/>
         <v>174</v>
       </c>
     </row>
@@ -4972,7 +5070,7 @@
         <v>226</v>
       </c>
       <c r="C177" s="6">
-        <f>BIN2DEC(B177)</f>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
     </row>
@@ -4984,7 +5082,7 @@
         <v>145</v>
       </c>
       <c r="C178" s="6">
-        <f>BIN2DEC(B178)</f>
+        <f t="shared" si="5"/>
         <v>176</v>
       </c>
     </row>
@@ -4996,7 +5094,7 @@
         <v>113</v>
       </c>
       <c r="C179" s="1">
-        <f>BIN2DEC(B179)</f>
+        <f t="shared" si="5"/>
         <v>177</v>
       </c>
     </row>
@@ -5008,7 +5106,7 @@
         <v>146</v>
       </c>
       <c r="C180" s="1">
-        <f>BIN2DEC(B180)</f>
+        <f t="shared" si="5"/>
         <v>178</v>
       </c>
     </row>
@@ -5020,7 +5118,7 @@
         <v>114</v>
       </c>
       <c r="C181" s="1">
-        <f>BIN2DEC(B181)</f>
+        <f t="shared" si="5"/>
         <v>179</v>
       </c>
     </row>
@@ -5032,7 +5130,7 @@
         <v>201</v>
       </c>
       <c r="C182" s="1">
-        <f>BIN2DEC(B182)</f>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
     </row>
@@ -5044,7 +5142,7 @@
         <v>205</v>
       </c>
       <c r="C183" s="1">
-        <f>BIN2DEC(B183)</f>
+        <f t="shared" si="5"/>
         <v>181</v>
       </c>
     </row>
@@ -5056,7 +5154,7 @@
         <v>202</v>
       </c>
       <c r="C184" s="1">
-        <f>BIN2DEC(B184)</f>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
     </row>
@@ -5068,7 +5166,7 @@
         <v>273</v>
       </c>
       <c r="C185" s="1">
-        <f>BIN2DEC(B185)</f>
+        <f t="shared" si="5"/>
         <v>183</v>
       </c>
     </row>
@@ -5080,7 +5178,7 @@
         <v>147</v>
       </c>
       <c r="C186" s="6">
-        <f>BIN2DEC(B186)</f>
+        <f t="shared" si="5"/>
         <v>184</v>
       </c>
     </row>
@@ -5092,7 +5190,7 @@
         <v>115</v>
       </c>
       <c r="C187" s="1">
-        <f>BIN2DEC(B187)</f>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
     </row>
@@ -5104,7 +5202,7 @@
         <v>148</v>
       </c>
       <c r="C188" s="1">
-        <f>BIN2DEC(B188)</f>
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
     </row>
@@ -5116,7 +5214,7 @@
         <v>116</v>
       </c>
       <c r="C189" s="1">
-        <f>BIN2DEC(B189)</f>
+        <f t="shared" si="5"/>
         <v>187</v>
       </c>
     </row>
@@ -5128,7 +5226,7 @@
         <v>232</v>
       </c>
       <c r="C190" s="1">
-        <f>BIN2DEC(B190)</f>
+        <f t="shared" si="5"/>
         <v>188</v>
       </c>
     </row>
@@ -5140,7 +5238,7 @@
         <v>274</v>
       </c>
       <c r="C191" s="1">
-        <f>BIN2DEC(B191)</f>
+        <f t="shared" si="5"/>
         <v>189</v>
       </c>
     </row>
@@ -5152,7 +5250,7 @@
         <v>233</v>
       </c>
       <c r="C192" s="1">
-        <f>BIN2DEC(B192)</f>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
     </row>
@@ -5164,7 +5262,7 @@
         <v>229</v>
       </c>
       <c r="C193" s="1">
-        <f>BIN2DEC(B193)</f>
+        <f t="shared" si="5"/>
         <v>191</v>
       </c>
     </row>
@@ -5176,7 +5274,7 @@
         <v>125</v>
       </c>
       <c r="C194" s="1">
-        <f>BIN2DEC(B194)</f>
+        <f t="shared" ref="C194:C257" si="6">BIN2DEC(B194)</f>
         <v>192</v>
       </c>
     </row>
@@ -5188,7 +5286,7 @@
         <v>186</v>
       </c>
       <c r="C195" s="1">
-        <f>BIN2DEC(B195)</f>
+        <f t="shared" si="6"/>
         <v>193</v>
       </c>
     </row>
@@ -5200,7 +5298,7 @@
         <v>126</v>
       </c>
       <c r="C196" s="1">
-        <f>BIN2DEC(B196)</f>
+        <f t="shared" si="6"/>
         <v>194</v>
       </c>
     </row>
@@ -5212,7 +5310,7 @@
         <v>187</v>
       </c>
       <c r="C197" s="6">
-        <f>BIN2DEC(B197)</f>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
     </row>
@@ -5224,7 +5322,7 @@
         <v>51</v>
       </c>
       <c r="C198" s="1">
-        <f>BIN2DEC(B198)</f>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
     </row>
@@ -5236,7 +5334,7 @@
         <v>275</v>
       </c>
       <c r="C199" s="1">
-        <f>BIN2DEC(B199)</f>
+        <f t="shared" si="6"/>
         <v>197</v>
       </c>
     </row>
@@ -5248,7 +5346,7 @@
         <v>52</v>
       </c>
       <c r="C200" s="1">
-        <f>BIN2DEC(B200)</f>
+        <f t="shared" si="6"/>
         <v>198</v>
       </c>
     </row>
@@ -5260,7 +5358,7 @@
         <v>184</v>
       </c>
       <c r="C201" s="6">
-        <f>BIN2DEC(B201)</f>
+        <f t="shared" si="6"/>
         <v>199</v>
       </c>
     </row>
@@ -5272,7 +5370,7 @@
         <v>127</v>
       </c>
       <c r="C202" s="1">
-        <f>BIN2DEC(B202)</f>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
     </row>
@@ -5284,7 +5382,7 @@
         <v>188</v>
       </c>
       <c r="C203" s="1">
-        <f>BIN2DEC(B203)</f>
+        <f t="shared" si="6"/>
         <v>201</v>
       </c>
     </row>
@@ -5296,7 +5394,7 @@
         <v>128</v>
       </c>
       <c r="C204" s="1">
-        <f>BIN2DEC(B204)</f>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
     </row>
@@ -5308,7 +5406,7 @@
         <v>189</v>
       </c>
       <c r="C205" s="1">
-        <f>BIN2DEC(B205)</f>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
     </row>
@@ -5320,7 +5418,7 @@
         <v>53</v>
       </c>
       <c r="C206" s="1">
-        <f>BIN2DEC(B206)</f>
+        <f t="shared" si="6"/>
         <v>204</v>
       </c>
     </row>
@@ -5332,7 +5430,7 @@
         <v>276</v>
       </c>
       <c r="C207" s="1">
-        <f>BIN2DEC(B207)</f>
+        <f t="shared" si="6"/>
         <v>205</v>
       </c>
     </row>
@@ -5344,7 +5442,7 @@
         <v>54</v>
       </c>
       <c r="C208" s="1">
-        <f>BIN2DEC(B208)</f>
+        <f t="shared" si="6"/>
         <v>206</v>
       </c>
     </row>
@@ -5356,7 +5454,7 @@
         <v>234</v>
       </c>
       <c r="C209" s="1">
-        <f>BIN2DEC(B209)</f>
+        <f t="shared" si="6"/>
         <v>207</v>
       </c>
     </row>
@@ -5368,7 +5466,7 @@
         <v>213</v>
       </c>
       <c r="C210" s="1">
-        <f>BIN2DEC(B210)</f>
+        <f t="shared" si="6"/>
         <v>208</v>
       </c>
     </row>
@@ -5380,7 +5478,7 @@
         <v>277</v>
       </c>
       <c r="C211" s="1">
-        <f>BIN2DEC(B211)</f>
+        <f t="shared" si="6"/>
         <v>209</v>
       </c>
     </row>
@@ -5392,7 +5490,7 @@
         <v>214</v>
       </c>
       <c r="C212" s="1">
-        <f>BIN2DEC(B212)</f>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
     </row>
@@ -5404,7 +5502,7 @@
         <v>278</v>
       </c>
       <c r="C213" s="1">
-        <f>BIN2DEC(B213)</f>
+        <f t="shared" si="6"/>
         <v>211</v>
       </c>
     </row>
@@ -5416,7 +5514,7 @@
         <v>207</v>
       </c>
       <c r="C214" s="1">
-        <f>BIN2DEC(B214)</f>
+        <f t="shared" si="6"/>
         <v>212</v>
       </c>
     </row>
@@ -5428,7 +5526,7 @@
         <v>29</v>
       </c>
       <c r="C215" s="1">
-        <f>BIN2DEC(B215)</f>
+        <f t="shared" si="6"/>
         <v>213</v>
       </c>
     </row>
@@ -5440,19 +5538,19 @@
         <v>208</v>
       </c>
       <c r="C216" s="6">
-        <f>BIN2DEC(B216)</f>
+        <f t="shared" si="6"/>
         <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C217" s="1">
-        <f>BIN2DEC(B217)</f>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
     </row>
@@ -5464,7 +5562,7 @@
         <v>215</v>
       </c>
       <c r="C218" s="1">
-        <f>BIN2DEC(B218)</f>
+        <f t="shared" si="6"/>
         <v>216</v>
       </c>
     </row>
@@ -5476,7 +5574,7 @@
         <v>280</v>
       </c>
       <c r="C219" s="1">
-        <f>BIN2DEC(B219)</f>
+        <f t="shared" si="6"/>
         <v>217</v>
       </c>
     </row>
@@ -5488,7 +5586,7 @@
         <v>216</v>
       </c>
       <c r="C220" s="1">
-        <f>BIN2DEC(B220)</f>
+        <f t="shared" si="6"/>
         <v>218</v>
       </c>
     </row>
@@ -5500,7 +5598,7 @@
         <v>281</v>
       </c>
       <c r="C221" s="1">
-        <f>BIN2DEC(B221)</f>
+        <f t="shared" si="6"/>
         <v>219</v>
       </c>
     </row>
@@ -5512,7 +5610,7 @@
         <v>282</v>
       </c>
       <c r="C222" s="1">
-        <f>BIN2DEC(B222)</f>
+        <f t="shared" si="6"/>
         <v>220</v>
       </c>
     </row>
@@ -5524,7 +5622,7 @@
         <v>21</v>
       </c>
       <c r="C223" s="1">
-        <f>BIN2DEC(B223)</f>
+        <f t="shared" si="6"/>
         <v>221</v>
       </c>
     </row>
@@ -5536,7 +5634,7 @@
         <v>283</v>
       </c>
       <c r="C224" s="1">
-        <f>BIN2DEC(B224)</f>
+        <f t="shared" si="6"/>
         <v>222</v>
       </c>
     </row>
@@ -5548,7 +5646,7 @@
         <v>38</v>
       </c>
       <c r="C225" s="6">
-        <f>BIN2DEC(B225)</f>
+        <f t="shared" si="6"/>
         <v>223</v>
       </c>
     </row>
@@ -5560,7 +5658,7 @@
         <v>129</v>
       </c>
       <c r="C226" s="1">
-        <f>BIN2DEC(B226)</f>
+        <f t="shared" si="6"/>
         <v>224</v>
       </c>
     </row>
@@ -5572,7 +5670,7 @@
         <v>240</v>
       </c>
       <c r="C227" s="1">
-        <f>BIN2DEC(B227)</f>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
     </row>
@@ -5584,7 +5682,7 @@
         <v>130</v>
       </c>
       <c r="C228" s="1">
-        <f>BIN2DEC(B228)</f>
+        <f t="shared" si="6"/>
         <v>226</v>
       </c>
     </row>
@@ -5596,7 +5694,7 @@
         <v>241</v>
       </c>
       <c r="C229" s="1">
-        <f>BIN2DEC(B229)</f>
+        <f t="shared" si="6"/>
         <v>227</v>
       </c>
     </row>
@@ -5608,7 +5706,7 @@
         <v>55</v>
       </c>
       <c r="C230" s="1">
-        <f>BIN2DEC(B230)</f>
+        <f t="shared" si="6"/>
         <v>228</v>
       </c>
     </row>
@@ -5620,7 +5718,7 @@
         <v>284</v>
       </c>
       <c r="C231" s="1">
-        <f>BIN2DEC(B231)</f>
+        <f t="shared" si="6"/>
         <v>229</v>
       </c>
     </row>
@@ -5632,7 +5730,7 @@
         <v>56</v>
       </c>
       <c r="C232" s="1">
-        <f>BIN2DEC(B232)</f>
+        <f t="shared" si="6"/>
         <v>230</v>
       </c>
     </row>
@@ -5644,7 +5742,7 @@
         <v>235</v>
       </c>
       <c r="C233" s="1">
-        <f>BIN2DEC(B233)</f>
+        <f t="shared" si="6"/>
         <v>231</v>
       </c>
     </row>
@@ -5656,7 +5754,7 @@
         <v>131</v>
       </c>
       <c r="C234" s="1">
-        <f>BIN2DEC(B234)</f>
+        <f t="shared" si="6"/>
         <v>232</v>
       </c>
     </row>
@@ -5668,7 +5766,7 @@
         <v>242</v>
       </c>
       <c r="C235" s="1">
-        <f>BIN2DEC(B235)</f>
+        <f t="shared" si="6"/>
         <v>233</v>
       </c>
     </row>
@@ -5680,7 +5778,7 @@
         <v>132</v>
       </c>
       <c r="C236" s="6">
-        <f>BIN2DEC(B236)</f>
+        <f t="shared" si="6"/>
         <v>234</v>
       </c>
     </row>
@@ -5692,7 +5790,7 @@
         <v>243</v>
       </c>
       <c r="C237" s="1">
-        <f>BIN2DEC(B237)</f>
+        <f t="shared" si="6"/>
         <v>235</v>
       </c>
     </row>
@@ -5704,7 +5802,7 @@
         <v>57</v>
       </c>
       <c r="C238" s="1">
-        <f>BIN2DEC(B238)</f>
+        <f t="shared" si="6"/>
         <v>236</v>
       </c>
     </row>
@@ -5716,7 +5814,7 @@
         <v>285</v>
       </c>
       <c r="C239" s="1">
-        <f>BIN2DEC(B239)</f>
+        <f t="shared" si="6"/>
         <v>237</v>
       </c>
     </row>
@@ -5728,7 +5826,7 @@
         <v>58</v>
       </c>
       <c r="C240" s="1">
-        <f>BIN2DEC(B240)</f>
+        <f t="shared" si="6"/>
         <v>238</v>
       </c>
     </row>
@@ -5740,7 +5838,7 @@
         <v>236</v>
       </c>
       <c r="C241" s="1">
-        <f>BIN2DEC(B241)</f>
+        <f t="shared" si="6"/>
         <v>239</v>
       </c>
     </row>
@@ -5752,7 +5850,7 @@
         <v>247</v>
       </c>
       <c r="C242" s="1">
-        <f>BIN2DEC(B242)</f>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
     </row>
@@ -5764,7 +5862,7 @@
         <v>190</v>
       </c>
       <c r="C243" s="1">
-        <f>BIN2DEC(B243)</f>
+        <f t="shared" si="6"/>
         <v>241</v>
       </c>
     </row>
@@ -5776,7 +5874,7 @@
         <v>248</v>
       </c>
       <c r="C244" s="1">
-        <f>BIN2DEC(B244)</f>
+        <f t="shared" si="6"/>
         <v>242</v>
       </c>
     </row>
@@ -5788,7 +5886,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="6">
-        <f>BIN2DEC(B245)</f>
+        <f t="shared" si="6"/>
         <v>243</v>
       </c>
     </row>
@@ -5800,7 +5898,7 @@
         <v>286</v>
       </c>
       <c r="C246" s="1">
-        <f>BIN2DEC(B246)</f>
+        <f t="shared" si="6"/>
         <v>244</v>
       </c>
     </row>
@@ -5812,7 +5910,7 @@
         <v>287</v>
       </c>
       <c r="C247" s="1">
-        <f>BIN2DEC(B247)</f>
+        <f t="shared" si="6"/>
         <v>245</v>
       </c>
     </row>
@@ -5824,7 +5922,7 @@
         <v>288</v>
       </c>
       <c r="C248" s="1">
-        <f>BIN2DEC(B248)</f>
+        <f t="shared" si="6"/>
         <v>246</v>
       </c>
     </row>
@@ -5836,7 +5934,7 @@
         <v>27</v>
       </c>
       <c r="C249" s="1">
-        <f>BIN2DEC(B249)</f>
+        <f t="shared" si="6"/>
         <v>247</v>
       </c>
     </row>
@@ -5848,7 +5946,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="1">
-        <f>BIN2DEC(B250)</f>
+        <f t="shared" si="6"/>
         <v>248</v>
       </c>
     </row>
@@ -5860,7 +5958,7 @@
         <v>245</v>
       </c>
       <c r="C251" s="1">
-        <f>BIN2DEC(B251)</f>
+        <f t="shared" si="6"/>
         <v>249</v>
       </c>
     </row>
@@ -5872,7 +5970,7 @@
         <v>250</v>
       </c>
       <c r="C252" s="6">
-        <f>BIN2DEC(B252)</f>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
     </row>
@@ -5884,7 +5982,7 @@
         <v>246</v>
       </c>
       <c r="C253" s="1">
-        <f>BIN2DEC(B253)</f>
+        <f t="shared" si="6"/>
         <v>251</v>
       </c>
     </row>
@@ -5896,7 +5994,7 @@
         <v>238</v>
       </c>
       <c r="C254" s="1">
-        <f>BIN2DEC(B254)</f>
+        <f t="shared" si="6"/>
         <v>252</v>
       </c>
     </row>
@@ -5908,7 +6006,7 @@
         <v>26</v>
       </c>
       <c r="C255" s="1">
-        <f>BIN2DEC(B255)</f>
+        <f t="shared" si="6"/>
         <v>253</v>
       </c>
     </row>
@@ -5920,7 +6018,7 @@
         <v>239</v>
       </c>
       <c r="C256" s="1">
-        <f>BIN2DEC(B256)</f>
+        <f t="shared" si="6"/>
         <v>254</v>
       </c>
     </row>
@@ -5932,7 +6030,7 @@
         <v>24</v>
       </c>
       <c r="C257" s="1">
-        <f>BIN2DEC(B257)</f>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
     </row>
@@ -5947,6 +6045,3443 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:K257"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="1">
+        <f>BIN2DEC(B2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3">
+        <f>LEN(I2)-LEN(SUBSTITUTE(I2,"x",""))</f>
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <f>POWER(2,J2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1">
+        <f>BIN2DEC(B3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J40" si="0">LEN(I3)-LEN(SUBSTITUTE(I3,"x",""))</f>
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K48" si="1">POWER(2,J3)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="1">
+        <f>BIN2DEC(B4)</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1">
+        <f>BIN2DEC(B5)</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <f>BIN2DEC(B6)</f>
+        <v>4</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="6">
+        <f>BIN2DEC(B7)</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1">
+        <f>BIN2DEC(B8)</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="1">
+        <f>BIN2DEC(B9)</f>
+        <v>7</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="1">
+        <f>BIN2DEC(B10)</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1">
+        <f>BIN2DEC(B11)</f>
+        <v>9</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="H11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="1">
+        <f>BIN2DEC(B12)</f>
+        <v>10</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1">
+        <f>BIN2DEC(B13)</f>
+        <v>11</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="H13" s="1">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1">
+        <f>BIN2DEC(B14)</f>
+        <v>12</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="H14" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="1">
+        <f>BIN2DEC(B15)</f>
+        <v>13</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="H15" s="1">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="6">
+        <f>BIN2DEC(B16)</f>
+        <v>14</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="H16" s="1">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="6">
+        <f>BIN2DEC(B17)</f>
+        <v>15</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="H17" s="1">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="1">
+        <f>BIN2DEC(B18)</f>
+        <v>16</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="J18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="4">
+        <f>SUM(K2:K17)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="1">
+        <f>BIN2DEC(B19)</f>
+        <v>17</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="J19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="5">
+        <f>256-K18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="1">
+        <f>BIN2DEC(B20)</f>
+        <v>18</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="1">
+        <f>BIN2DEC(B21)</f>
+        <v>19</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="1">
+        <f>BIN2DEC(B22)</f>
+        <v>20</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="1">
+        <f>BIN2DEC(B23)</f>
+        <v>21</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="1">
+        <f>BIN2DEC(B24)</f>
+        <v>22</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="1">
+        <f>BIN2DEC(B25)</f>
+        <v>23</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="1">
+        <f>BIN2DEC(B26)</f>
+        <v>24</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1">
+        <f>BIN2DEC(B27)</f>
+        <v>25</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="1">
+        <f>BIN2DEC(B28)</f>
+        <v>26</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>10</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="6">
+        <f>BIN2DEC(B29)</f>
+        <v>27</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="1">
+        <f>BIN2DEC(B30)</f>
+        <v>28</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="1">
+        <f>BIN2DEC(B31)</f>
+        <v>29</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>12</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="6">
+        <f>BIN2DEC(B32)</f>
+        <v>30</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="1">
+        <f>BIN2DEC(B33)</f>
+        <v>31</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="1">
+        <f>BIN2DEC(B34)</f>
+        <v>32</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="1">
+        <f>BIN2DEC(B35)</f>
+        <v>33</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="1">
+        <f>BIN2DEC(B36)</f>
+        <v>34</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1">
+        <f>BIN2DEC(B37)</f>
+        <v>35</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="1">
+        <f>BIN2DEC(B38)</f>
+        <v>36</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="1">
+        <f>BIN2DEC(B39)</f>
+        <v>37</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1">
+        <f>BIN2DEC(B40)</f>
+        <v>38</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="1">
+        <f>BIN2DEC(B41)</f>
+        <v>39</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="1">
+        <f>BIN2DEC(B42)</f>
+        <v>40</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="1">
+        <f>BIN2DEC(B43)</f>
+        <v>41</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="1">
+        <f>BIN2DEC(B44)</f>
+        <v>42</v>
+      </c>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="1">
+        <f>BIN2DEC(B45)</f>
+        <v>43</v>
+      </c>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="1">
+        <f>BIN2DEC(B46)</f>
+        <v>44</v>
+      </c>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="1">
+        <f>BIN2DEC(B47)</f>
+        <v>45</v>
+      </c>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>4</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="6">
+        <f>BIN2DEC(B48)</f>
+        <v>46</v>
+      </c>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="1">
+        <f>BIN2DEC(B49)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="1">
+        <f>BIN2DEC(B50)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>10</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="1">
+        <f>BIN2DEC(B51)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="1">
+        <f>BIN2DEC(B52)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>10</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="1">
+        <f>BIN2DEC(B53)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>12</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="1">
+        <f>BIN2DEC(B54)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>14</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="1">
+        <f>BIN2DEC(B55)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>12</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="1">
+        <f>BIN2DEC(B56)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>14</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" s="1">
+        <f>BIN2DEC(B57)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="1">
+        <f>BIN2DEC(B58)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>10</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="1">
+        <f>BIN2DEC(B59)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="1">
+        <f>BIN2DEC(B60)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>10</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="1">
+        <f>BIN2DEC(B61)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>12</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="1">
+        <f>BIN2DEC(B62)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>14</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C63" s="1">
+        <f>BIN2DEC(B63)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>12</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="6">
+        <f>BIN2DEC(B64)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>14</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" s="1">
+        <f>BIN2DEC(B65)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="1">
+        <f>BIN2DEC(B66)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>3</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="1">
+        <f>BIN2DEC(B67)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="1">
+        <f>BIN2DEC(B68)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="1">
+        <f>BIN2DEC(B69)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>5</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="1">
+        <f>BIN2DEC(B70)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>7</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="1">
+        <f>BIN2DEC(B71)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>5</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="1">
+        <f>BIN2DEC(B72)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>7</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C73" s="1">
+        <f>BIN2DEC(B73)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="1">
+        <f>BIN2DEC(B74)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>3</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="1">
+        <f>BIN2DEC(B75)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="1">
+        <f>BIN2DEC(B76)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="1">
+        <f>BIN2DEC(B77)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>5</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="1">
+        <f>BIN2DEC(B78)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>7</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="6">
+        <f>BIN2DEC(B79)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>5</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="1">
+        <f>BIN2DEC(B80)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>7</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" s="1">
+        <f>BIN2DEC(B81)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>9</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" s="1">
+        <f>BIN2DEC(B82)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>11</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="6">
+        <f>BIN2DEC(B83)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>9</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="1">
+        <f>BIN2DEC(B84)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>11</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="1">
+        <f>BIN2DEC(B85)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>13</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="1">
+        <f>BIN2DEC(B86)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>15</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="1">
+        <f>BIN2DEC(B87)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>13</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="1">
+        <f>BIN2DEC(B88)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>15</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="1">
+        <f>BIN2DEC(B89)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>9</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" s="6">
+        <f>BIN2DEC(B90)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>11</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" s="1">
+        <f>BIN2DEC(B91)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>9</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="1">
+        <f>BIN2DEC(B92)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>11</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="1">
+        <f>BIN2DEC(B93)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>13</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" s="1">
+        <f>BIN2DEC(B94)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>15</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="1">
+        <f>BIN2DEC(B95)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>13</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" s="1">
+        <f>BIN2DEC(B96)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>15</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C97" s="6">
+        <f>BIN2DEC(B97)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" s="1">
+        <f>BIN2DEC(B98)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>3</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" s="1">
+        <f>BIN2DEC(B99)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="1">
+        <f>BIN2DEC(B100)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>3</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="1">
+        <f>BIN2DEC(B101)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>5</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="1">
+        <f>BIN2DEC(B102)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>7</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103" s="1">
+        <f>BIN2DEC(B103)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>5</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="1">
+        <f>BIN2DEC(B104)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>7</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" s="1">
+        <f>BIN2DEC(B105)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" s="1">
+        <f>BIN2DEC(B106)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="1">
+        <f>BIN2DEC(B107)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>1</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" s="6">
+        <f>BIN2DEC(B108)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>3</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" s="1">
+        <f>BIN2DEC(B109)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>5</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="1">
+        <f>BIN2DEC(B110)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>7</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" s="1">
+        <f>BIN2DEC(B111)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>5</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112" s="6">
+        <f>BIN2DEC(B112)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>7</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C113" s="1">
+        <f>BIN2DEC(B113)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>9</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114" s="1">
+        <f>BIN2DEC(B114)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>11</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" s="1">
+        <f>BIN2DEC(B115)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>9</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="1">
+        <f>BIN2DEC(B116)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>11</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C117" s="1">
+        <f>BIN2DEC(B117)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>13</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C118" s="1">
+        <f>BIN2DEC(B118)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>15</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="1">
+        <f>BIN2DEC(B119)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>13</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" s="1">
+        <f>BIN2DEC(B120)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>15</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="1">
+        <f>BIN2DEC(B121)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>9</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C122" s="6">
+        <f>BIN2DEC(B122)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>11</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C123" s="1">
+        <f>BIN2DEC(B123)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>9</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C124" s="6">
+        <f>BIN2DEC(B124)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>11</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C125" s="1">
+        <f>BIN2DEC(B125)</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>13</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C126" s="6">
+        <f>BIN2DEC(B126)</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>15</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C127" s="1">
+        <f>BIN2DEC(B127)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>13</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C128" s="1">
+        <f>BIN2DEC(B128)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>15</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C129" s="1">
+        <f>BIN2DEC(B129)</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>0</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C130" s="1">
+        <f>BIN2DEC(B130)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>2</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" s="1">
+        <f>BIN2DEC(B131)</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>0</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C132" s="1">
+        <f>BIN2DEC(B132)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>2</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133" s="1">
+        <f>BIN2DEC(B133)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>4</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C134" s="1">
+        <f>BIN2DEC(B134)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>6</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C135" s="6">
+        <f>BIN2DEC(B135)</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>4</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C136" s="1">
+        <f>BIN2DEC(B136)</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>6</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C137" s="1">
+        <f>BIN2DEC(B137)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C138" s="1">
+        <f>BIN2DEC(B138)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>2</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" s="1">
+        <f>BIN2DEC(B139)</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>0</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140" s="1">
+        <f>BIN2DEC(B140)</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>2</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C141" s="6">
+        <f>BIN2DEC(B141)</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>4</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C142" s="1">
+        <f>BIN2DEC(B142)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>6</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C143" s="6">
+        <f>BIN2DEC(B143)</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>4</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C144" s="6">
+        <f>BIN2DEC(B144)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>6</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C145" s="1">
+        <f>BIN2DEC(B145)</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>8</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C146" s="1">
+        <f>BIN2DEC(B146)</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>10</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C147" s="1">
+        <f>BIN2DEC(B147)</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>8</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C148" s="1">
+        <f>BIN2DEC(B148)</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>10</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C149" s="1">
+        <f>BIN2DEC(B149)</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>12</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C150" s="1">
+        <f>BIN2DEC(B150)</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>14</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C151" s="1">
+        <f>BIN2DEC(B151)</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>12</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C152" s="1">
+        <f>BIN2DEC(B152)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>14</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C153" s="1">
+        <f>BIN2DEC(B153)</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>8</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C154" s="1">
+        <f>BIN2DEC(B154)</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>10</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C155" s="1">
+        <f>BIN2DEC(B155)</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>8</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C156" s="1">
+        <f>BIN2DEC(B156)</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>10</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C157" s="1">
+        <f>BIN2DEC(B157)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>12</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C158" s="1">
+        <f>BIN2DEC(B158)</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="6">
+        <v>14</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C159" s="6">
+        <f>BIN2DEC(B159)</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>12</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C160" s="1">
+        <f>BIN2DEC(B160)</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>14</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C161" s="1">
+        <f>BIN2DEC(B161)</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>0</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C162" s="1">
+        <f>BIN2DEC(B162)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>2</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C163" s="1">
+        <f>BIN2DEC(B163)</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>0</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C164" s="1">
+        <f>BIN2DEC(B164)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>2</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C165" s="1">
+        <f>BIN2DEC(B165)</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>4</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C166" s="1">
+        <f>BIN2DEC(B166)</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>6</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C167" s="1">
+        <f>BIN2DEC(B167)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>4</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C168" s="1">
+        <f>BIN2DEC(B168)</f>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>6</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C169" s="1">
+        <f>BIN2DEC(B169)</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C170" s="1">
+        <f>BIN2DEC(B170)</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>2</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C171" s="1">
+        <f>BIN2DEC(B171)</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>0</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C172" s="1">
+        <f>BIN2DEC(B172)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>2</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C173" s="1">
+        <f>BIN2DEC(B173)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>4</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C174" s="1">
+        <f>BIN2DEC(B174)</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>6</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C175" s="1">
+        <f>BIN2DEC(B175)</f>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>4</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C176" s="1">
+        <f>BIN2DEC(B176)</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>6</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C177" s="1">
+        <f>BIN2DEC(B177)</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>8</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C178" s="1">
+        <f>BIN2DEC(B178)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>10</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C179" s="1">
+        <f>BIN2DEC(B179)</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>8</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C180" s="1">
+        <f>BIN2DEC(B180)</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <v>10</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C181" s="6">
+        <f>BIN2DEC(B181)</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>12</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C182" s="1">
+        <f>BIN2DEC(B182)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>14</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C183" s="1">
+        <f>BIN2DEC(B183)</f>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>12</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C184" s="1">
+        <f>BIN2DEC(B184)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>14</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C185" s="1">
+        <f>BIN2DEC(B185)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>8</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C186" s="1">
+        <f>BIN2DEC(B186)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>10</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C187" s="1">
+        <f>BIN2DEC(B187)</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>8</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C188" s="1">
+        <f>BIN2DEC(B188)</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>10</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C189" s="6">
+        <f>BIN2DEC(B189)</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>12</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C190" s="1">
+        <f>BIN2DEC(B190)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>14</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C191" s="1">
+        <f>BIN2DEC(B191)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>12</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C192" s="1">
+        <f>BIN2DEC(B192)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>14</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C193" s="1">
+        <f>BIN2DEC(B193)</f>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>1</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C194" s="1">
+        <f>BIN2DEC(B194)</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>3</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C195" s="1">
+        <f>BIN2DEC(B195)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>1</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C196" s="1">
+        <f>BIN2DEC(B196)</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>3</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C197" s="1">
+        <f>BIN2DEC(B197)</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>5</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C198" s="1">
+        <f>BIN2DEC(B198)</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>7</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C199" s="1">
+        <f>BIN2DEC(B199)</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>5</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C200" s="1">
+        <f>BIN2DEC(B200)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
+        <v>7</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C201" s="6">
+        <f>BIN2DEC(B201)</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>1</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C202" s="1">
+        <f>BIN2DEC(B202)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="6">
+        <v>3</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C203" s="6">
+        <f>BIN2DEC(B203)</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>1</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C204" s="1">
+        <f>BIN2DEC(B204)</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
+        <v>3</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C205" s="6">
+        <f>BIN2DEC(B205)</f>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>5</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C206" s="1">
+        <f>BIN2DEC(B206)</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
+        <v>7</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C207" s="6">
+        <f>BIN2DEC(B207)</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>5</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C208" s="1">
+        <f>BIN2DEC(B208)</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
+        <v>7</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C209" s="6">
+        <f>BIN2DEC(B209)</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>9</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C210" s="1">
+        <f>BIN2DEC(B210)</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="6">
+        <v>11</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C211" s="6">
+        <f>BIN2DEC(B211)</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>9</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C212" s="1">
+        <f>BIN2DEC(B212)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>11</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C213" s="1">
+        <f>BIN2DEC(B213)</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>13</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C214" s="1">
+        <f>BIN2DEC(B214)</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>15</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C215" s="1">
+        <f>BIN2DEC(B215)</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>13</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C216" s="1">
+        <f>BIN2DEC(B216)</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>15</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C217" s="1">
+        <f>BIN2DEC(B217)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="6">
+        <v>9</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C218" s="6">
+        <f>BIN2DEC(B218)</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>11</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C219" s="1">
+        <f>BIN2DEC(B219)</f>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>9</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C220" s="1">
+        <f>BIN2DEC(B220)</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>11</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C221" s="1">
+        <f>BIN2DEC(B221)</f>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>13</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C222" s="1">
+        <f>BIN2DEC(B222)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="6">
+        <v>15</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C223" s="6">
+        <f>BIN2DEC(B223)</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>13</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C224" s="1">
+        <f>BIN2DEC(B224)</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>15</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C225" s="1">
+        <f>BIN2DEC(B225)</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>1</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C226" s="1">
+        <f>BIN2DEC(B226)</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>3</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C227" s="1">
+        <f>BIN2DEC(B227)</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>1</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C228" s="1">
+        <f>BIN2DEC(B228)</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="6">
+        <v>3</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C229" s="6">
+        <f>BIN2DEC(B229)</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>5</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C230" s="1">
+        <f>BIN2DEC(B230)</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>7</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C231" s="1">
+        <f>BIN2DEC(B231)</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>5</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" s="1">
+        <f>BIN2DEC(B232)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="6">
+        <v>7</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C233" s="6">
+        <f>BIN2DEC(B233)</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
+        <v>1</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C234" s="6">
+        <f>BIN2DEC(B234)</f>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>3</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C235" s="1">
+        <f>BIN2DEC(B235)</f>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>1</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C236" s="1">
+        <f>BIN2DEC(B236)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>3</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C237" s="1">
+        <f>BIN2DEC(B237)</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>5</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C238" s="1">
+        <f>BIN2DEC(B238)</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="6">
+        <v>7</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C239" s="6">
+        <f>BIN2DEC(B239)</f>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>5</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C240" s="1">
+        <f>BIN2DEC(B240)</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>7</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C241" s="1">
+        <f>BIN2DEC(B241)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>9</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C242" s="1">
+        <f>BIN2DEC(B242)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>11</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C243" s="1">
+        <f>BIN2DEC(B243)</f>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>9</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C244" s="1">
+        <f>BIN2DEC(B244)</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>11</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C245" s="1">
+        <f>BIN2DEC(B245)</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>13</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C246" s="1">
+        <f>BIN2DEC(B246)</f>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>15</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C247" s="1">
+        <f>BIN2DEC(B247)</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>13</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C248" s="1">
+        <f>BIN2DEC(B248)</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>15</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C249" s="1">
+        <f>BIN2DEC(B249)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>9</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C250" s="1">
+        <f>BIN2DEC(B250)</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>11</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C251" s="1">
+        <f>BIN2DEC(B251)</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>9</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C252" s="1">
+        <f>BIN2DEC(B252)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>11</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C253" s="1">
+        <f>BIN2DEC(B253)</f>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>13</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C254" s="1">
+        <f>BIN2DEC(B254)</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>15</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C255" s="1">
+        <f>BIN2DEC(B255)</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="6">
+        <v>13</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C256" s="6">
+        <f>BIN2DEC(B256)</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>15</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C257" s="1">
+        <f>BIN2DEC(B257)</f>
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
